--- a/2.xlsx
+++ b/2.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="18350" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="103">
   <si>
     <t>相机ID</t>
   </si>
@@ -64,294 +77,640 @@
     <t>13961806484004864</t>
   </si>
   <si>
+    <t>test淮安</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>抓拍机</t>
+  </si>
+  <si>
+    <t>人脸卡口</t>
+  </si>
+  <si>
+    <t>小图解析</t>
+  </si>
+  <si>
+    <t>正在进行</t>
+  </si>
+  <si>
+    <t>人脸+人体</t>
+  </si>
+  <si>
     <t>13690268775137280</t>
   </si>
   <si>
+    <t>车辆违停布控</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>视频流相机</t>
+  </si>
+  <si>
+    <t>治安监控</t>
+  </si>
+  <si>
+    <t>异常</t>
+  </si>
+  <si>
+    <t>人脸+人体+机动车+非机动车</t>
+  </si>
+  <si>
     <t>13690268744073216</t>
   </si>
   <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>13690268744073216_0_small</t>
+  </si>
+  <si>
+    <t>人脸</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>97 * 154</t>
+  </si>
+  <si>
+    <t>5.0KB</t>
+  </si>
+  <si>
+    <t>13690268744073216_0_full</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>1920 * 1080</t>
+  </si>
+  <si>
+    <t>335.0KB</t>
+  </si>
+  <si>
+    <t>13690268744073216_1_small</t>
+  </si>
+  <si>
+    <t>人体</t>
+  </si>
+  <si>
+    <t>168 * 416</t>
+  </si>
+  <si>
+    <t>31.0KB</t>
+  </si>
+  <si>
+    <t>13690268744073216_1_full</t>
+  </si>
+  <si>
+    <t>336.0KB</t>
+  </si>
+  <si>
     <t>13690268796960768</t>
   </si>
   <si>
+    <t>聚众</t>
+  </si>
+  <si>
     <t>13690268831563776</t>
   </si>
   <si>
+    <t>大门口</t>
+  </si>
+  <si>
+    <t>13690268831563776_1_full</t>
+  </si>
+  <si>
+    <t>1346 * 1080</t>
+  </si>
+  <si>
+    <t>227.0KB</t>
+  </si>
+  <si>
+    <t>13690268831563776_5_small</t>
+  </si>
+  <si>
+    <t>机动车</t>
+  </si>
+  <si>
+    <t>322 * 318</t>
+  </si>
+  <si>
+    <t>27.0KB</t>
+  </si>
+  <si>
+    <t>13690268831563776_5_full</t>
+  </si>
+  <si>
+    <t>219.0KB</t>
+  </si>
+  <si>
+    <t>13690268831563776_1_small</t>
+  </si>
+  <si>
+    <t>139 * 281</t>
+  </si>
+  <si>
+    <t>14.0KB</t>
+  </si>
+  <si>
+    <t>13690268831563776_6_small</t>
+  </si>
+  <si>
+    <t>非机动车</t>
+  </si>
+  <si>
+    <t>141 * 334</t>
+  </si>
+  <si>
+    <t>13690268831563776_6_full</t>
+  </si>
+  <si>
+    <t>228.0KB</t>
+  </si>
+  <si>
     <t>13690268615557120</t>
   </si>
   <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>13690268615557120_0_full</t>
+  </si>
+  <si>
+    <t>216.0KB</t>
+  </si>
+  <si>
+    <t>13690268615557120_0_small</t>
+  </si>
+  <si>
+    <t>164 * 153</t>
+  </si>
+  <si>
+    <t>7.0KB</t>
+  </si>
+  <si>
+    <t>13690268615557120_1_small</t>
+  </si>
+  <si>
+    <t>113 * 416</t>
+  </si>
+  <si>
+    <t>18.0KB</t>
+  </si>
+  <si>
+    <t>13690268615557120_1_full</t>
+  </si>
+  <si>
+    <t>259.0KB</t>
+  </si>
+  <si>
     <t>13690268852731904</t>
   </si>
   <si>
-    <t>test淮安</t>
-  </si>
-  <si>
-    <t>车辆违停布控</t>
-  </si>
-  <si>
-    <t>N6</t>
-  </si>
-  <si>
-    <t>聚众</t>
-  </si>
-  <si>
-    <t>大门口</t>
-  </si>
-  <si>
-    <t>道路</t>
-  </si>
-  <si>
     <t>园区门口</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>抓拍机</t>
-  </si>
-  <si>
-    <t>视频流相机</t>
-  </si>
-  <si>
-    <t>人脸卡口</t>
-  </si>
-  <si>
-    <t>治安监控</t>
-  </si>
-  <si>
-    <t>小图解析</t>
-  </si>
-  <si>
-    <t>正在进行</t>
-  </si>
-  <si>
-    <t>异常</t>
-  </si>
-  <si>
-    <t>人脸+人体</t>
-  </si>
-  <si>
-    <t>人脸+人体+机动车+非机动车</t>
-  </si>
-  <si>
-    <t>13690268744073216_0_small</t>
-  </si>
-  <si>
-    <t>13690268744073216_0_full</t>
-  </si>
-  <si>
-    <t>13690268744073216_1_small</t>
-  </si>
-  <si>
-    <t>13690268744073216_1_full</t>
-  </si>
-  <si>
-    <t>13690268831563776_1_full</t>
-  </si>
-  <si>
-    <t>13690268831563776_5_small</t>
-  </si>
-  <si>
-    <t>13690268831563776_5_full</t>
-  </si>
-  <si>
-    <t>13690268831563776_1_small</t>
-  </si>
-  <si>
-    <t>13690268831563776_6_small</t>
-  </si>
-  <si>
-    <t>13690268831563776_6_full</t>
-  </si>
-  <si>
-    <t>13690268615557120_0_full</t>
-  </si>
-  <si>
-    <t>13690268615557120_0_small</t>
-  </si>
-  <si>
-    <t>13690268615557120_1_small</t>
-  </si>
-  <si>
-    <t>13690268615557120_1_full</t>
-  </si>
-  <si>
     <t>13690268852731904_0_small</t>
   </si>
   <si>
+    <t>186 * 154</t>
+  </si>
+  <si>
+    <t>13.0KB</t>
+  </si>
+  <si>
     <t>13690268852731904_1_full</t>
   </si>
   <si>
+    <t>386.0KB</t>
+  </si>
+  <si>
     <t>13690268852731904_0_full</t>
   </si>
   <si>
+    <t>424.0KB</t>
+  </si>
+  <si>
     <t>13690268852731904_1_small</t>
   </si>
   <si>
+    <t>111 * 232</t>
+  </si>
+  <si>
+    <t>12.0KB</t>
+  </si>
+  <si>
     <t>13690268852731904_5_full</t>
   </si>
   <si>
+    <t>382.0KB</t>
+  </si>
+  <si>
     <t>13690268852731904_5_small</t>
   </si>
   <si>
+    <t>416 * 311</t>
+  </si>
+  <si>
+    <t>69.0KB</t>
+  </si>
+  <si>
     <t>13690268852731904_6_small</t>
   </si>
   <si>
+    <t>284 * 284</t>
+  </si>
+  <si>
+    <t>32.0KB</t>
+  </si>
+  <si>
     <t>13690268852731904_6_full</t>
   </si>
   <si>
-    <t>人脸</t>
-  </si>
-  <si>
-    <t>人体</t>
-  </si>
-  <si>
-    <t>机动车</t>
-  </si>
-  <si>
-    <t>非机动车</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>97 * 154</t>
-  </si>
-  <si>
-    <t>1920 * 1080</t>
-  </si>
-  <si>
-    <t>168 * 416</t>
-  </si>
-  <si>
-    <t>1346 * 1080</t>
-  </si>
-  <si>
-    <t>322 * 318</t>
-  </si>
-  <si>
-    <t>139 * 281</t>
-  </si>
-  <si>
-    <t>141 * 334</t>
-  </si>
-  <si>
-    <t>164 * 153</t>
-  </si>
-  <si>
-    <t>113 * 416</t>
-  </si>
-  <si>
-    <t>186 * 154</t>
-  </si>
-  <si>
-    <t>111 * 232</t>
-  </si>
-  <si>
-    <t>416 * 311</t>
-  </si>
-  <si>
-    <t>284 * 284</t>
-  </si>
-  <si>
-    <t>5.0KB</t>
-  </si>
-  <si>
-    <t>335.0KB</t>
-  </si>
-  <si>
-    <t>31.0KB</t>
-  </si>
-  <si>
-    <t>336.0KB</t>
-  </si>
-  <si>
-    <t>227.0KB</t>
-  </si>
-  <si>
-    <t>27.0KB</t>
-  </si>
-  <si>
-    <t>219.0KB</t>
-  </si>
-  <si>
-    <t>14.0KB</t>
-  </si>
-  <si>
-    <t>228.0KB</t>
-  </si>
-  <si>
-    <t>216.0KB</t>
-  </si>
-  <si>
-    <t>7.0KB</t>
-  </si>
-  <si>
-    <t>18.0KB</t>
-  </si>
-  <si>
-    <t>259.0KB</t>
-  </si>
-  <si>
-    <t>13.0KB</t>
-  </si>
-  <si>
-    <t>386.0KB</t>
-  </si>
-  <si>
-    <t>424.0KB</t>
-  </si>
-  <si>
-    <t>12.0KB</t>
-  </si>
-  <si>
-    <t>382.0KB</t>
-  </si>
-  <si>
-    <t>69.0KB</t>
-  </si>
-  <si>
-    <t>32.0KB</t>
-  </si>
-  <si>
     <t>489.0KB</t>
+  </si>
+  <si>
+    <t>12121e12e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -374,9 +733,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -384,11 +985,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -671,19 +1324,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="2:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +1385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -738,16 +1393,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -756,33 +1411,33 @@
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -791,13 +1446,13 @@
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -805,19 +1460,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -826,28 +1481,28 @@
         <v>200</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
         <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -855,19 +1510,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -876,28 +1531,28 @@
         <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>69</v>
-      </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -905,19 +1560,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -926,28 +1581,28 @@
         <v>200</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
         <v>42</v>
       </c>
-      <c r="M6" t="s">
-        <v>63</v>
-      </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -955,19 +1610,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -976,48 +1631,48 @@
         <v>200</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
         <v>39</v>
       </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" t="s">
-        <v>69</v>
-      </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1026,13 +1681,13 @@
         <v>200</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1040,19 +1695,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1061,28 +1716,28 @@
         <v>200</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1090,19 +1745,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1111,28 +1766,28 @@
         <v>200</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="P10" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1140,19 +1795,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1161,28 +1816,28 @@
         <v>200</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1190,19 +1845,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1211,28 +1866,28 @@
         <v>200</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1240,19 +1895,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1261,28 +1916,28 @@
         <v>200</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" t="s">
         <v>65</v>
       </c>
-      <c r="N13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" t="s">
-        <v>74</v>
-      </c>
       <c r="P13" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1290,19 +1945,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1311,28 +1966,28 @@
         <v>200</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s">
         <v>67</v>
-      </c>
-      <c r="O14" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1340,19 +1995,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1361,28 +2016,28 @@
         <v>200</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" t="s">
         <v>39</v>
       </c>
-      <c r="L15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" t="s">
-        <v>69</v>
-      </c>
       <c r="P15" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1390,19 +2045,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1411,28 +2066,28 @@
         <v>200</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1440,19 +2095,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1461,28 +2116,28 @@
         <v>200</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M17" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
         <v>76</v>
       </c>
       <c r="P17" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1490,19 +2145,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1511,28 +2166,28 @@
         <v>200</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" t="s">
         <v>39</v>
       </c>
-      <c r="L18" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18" t="s">
-        <v>67</v>
-      </c>
-      <c r="O18" t="s">
-        <v>69</v>
-      </c>
       <c r="P18" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1540,19 +2195,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1561,28 +2216,28 @@
         <v>200</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="N19" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O19" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1590,19 +2245,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1611,28 +2266,28 @@
         <v>200</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" t="s">
         <v>39</v>
       </c>
-      <c r="L20" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" t="s">
-        <v>63</v>
-      </c>
-      <c r="N20" t="s">
-        <v>67</v>
-      </c>
-      <c r="O20" t="s">
-        <v>69</v>
-      </c>
       <c r="P20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1640,19 +2295,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1661,28 +2316,28 @@
         <v>200</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" t="s">
         <v>39</v>
       </c>
-      <c r="L21" t="s">
-        <v>56</v>
-      </c>
-      <c r="M21" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" t="s">
-        <v>67</v>
-      </c>
-      <c r="O21" t="s">
-        <v>69</v>
-      </c>
       <c r="P21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1690,19 +2345,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1711,28 +2366,28 @@
         <v>200</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L22" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="M22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="N22" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O22" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1740,19 +2395,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1761,28 +2416,28 @@
         <v>200</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" t="s">
         <v>39</v>
       </c>
-      <c r="L23" t="s">
-        <v>58</v>
-      </c>
-      <c r="M23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N23" t="s">
-        <v>67</v>
-      </c>
-      <c r="O23" t="s">
-        <v>69</v>
-      </c>
       <c r="P23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1790,19 +2445,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1811,28 +2466,28 @@
         <v>200</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L24" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="M24" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N24" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1840,19 +2495,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1861,28 +2516,28 @@
         <v>200</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="M25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N25" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1890,19 +2545,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1911,31 +2566,37 @@
         <v>200</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" t="s">
         <v>39</v>
-      </c>
-      <c r="L26" t="s">
-        <v>61</v>
-      </c>
-      <c r="M26" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" t="s">
-        <v>67</v>
-      </c>
-      <c r="O26" t="s">
-        <v>69</v>
       </c>
       <c r="P26" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>